--- a/excel/VA-Create.xlsx
+++ b/excel/VA-Create.xlsx
@@ -222,16 +222,16 @@
     <t xml:space="preserve">county    </t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t xml:space="preserve">tag     </t>
   </si>
   <si>
-    <t>tag-1</t>
-  </si>
-  <si>
     <t>0/5 * * * * ?</t>
+  </si>
+  <si>
+    <t>US##IL##UA</t>
+  </si>
+  <si>
+    <t>drugs##killer##book</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,15 +998,15 @@
         <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/excel/VA-Create.xlsx
+++ b/excel/VA-Create.xlsx
@@ -219,9 +219,6 @@
     <t>OAuthClientSecret-1</t>
   </si>
   <si>
-    <t xml:space="preserve">county    </t>
-  </si>
-  <si>
     <t xml:space="preserve">tag     </t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>drugs##killer##book</t>
+  </si>
+  <si>
+    <t>countries</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,18 +995,18 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
